--- a/crypto.xlsx
+++ b/crypto.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -28,13 +28,16 @@
     <t xml:space="preserve">Book Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Bitcoin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethereum</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dogecoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cat Token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squirrel Finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meme</t>
   </si>
 </sst>
 </file>
@@ -204,18 +207,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="29.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -234,22 +238,28 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>44237.8125</v>
+        <v>44245.8125</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>45000</v>
+        <v>1500</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0.5253</v>
+        <v>3500.1505</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>0.85</v>
+        <v>6500.3507</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>2450.445</v>
+        <v>0.7105</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.7105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,6 +268,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
@@ -265,6 +276,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
@@ -272,6 +284,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
@@ -279,6 +292,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
@@ -286,6 +300,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
@@ -293,6 +308,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -300,6 +316,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7"/>
@@ -307,6 +324,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
